--- a/Etiquette/SRO-85-048-570-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-85-048-570-ETIQUETTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="326">
   <si>
     <t>Ligne 1</t>
   </si>
@@ -58,24 +58,24 @@
     <t>24Fo</t>
   </si>
   <si>
+    <t>CDI-85-048-570-1011</t>
+  </si>
+  <si>
+    <t>09/2021</t>
+  </si>
+  <si>
+    <t>F27757310321</t>
+  </si>
+  <si>
+    <t>72Fo</t>
+  </si>
+  <si>
+    <t>CDI-85-048-570-1007</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-1008</t>
   </si>
   <si>
-    <t>09/2021</t>
-  </si>
-  <si>
-    <t>F27757310321</t>
-  </si>
-  <si>
-    <t>CDI-85-048-570-1011</t>
-  </si>
-  <si>
-    <t>72Fo</t>
-  </si>
-  <si>
-    <t>CDI-85-048-570-1007</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-1009</t>
   </si>
   <si>
@@ -88,30 +88,30 @@
     <t>144Fo</t>
   </si>
   <si>
+    <t>CDI-85-048-570-3001</t>
+  </si>
+  <si>
+    <t>96Fo</t>
+  </si>
+  <si>
+    <t>CDI-85-048-570-1002</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-2001</t>
   </si>
   <si>
-    <t>CDI-85-048-570-3001</t>
-  </si>
-  <si>
-    <t>96Fo</t>
-  </si>
-  <si>
-    <t>CDI-85-048-570-1002</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-1031</t>
   </si>
   <si>
     <t>CDI-85-048-570-1014</t>
   </si>
   <si>
+    <t>CDI-85-048-570-1018</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-1017</t>
   </si>
   <si>
-    <t>CDI-85-048-570-1018</t>
-  </si>
-  <si>
     <t>12Fo</t>
   </si>
   <si>
@@ -148,36 +148,36 @@
     <t>CDI-85-048-570-2016</t>
   </si>
   <si>
+    <t>CDI-85-048-570-1021</t>
+  </si>
+  <si>
+    <t>CDI-85-048-570-1019</t>
+  </si>
+  <si>
+    <t>CDI-85-048-570-1015</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-1032</t>
   </si>
   <si>
-    <t>CDI-85-048-570-1019</t>
-  </si>
-  <si>
-    <t>CDI-85-048-570-1015</t>
-  </si>
-  <si>
-    <t>CDI-85-048-570-1021</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-2029</t>
   </si>
   <si>
+    <t>CDI-85-048-570-3009</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-3012</t>
   </si>
   <si>
-    <t>CDI-85-048-570-3009</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-1023</t>
   </si>
   <si>
+    <t>CDI-85-048-570-2010</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-2011</t>
   </si>
   <si>
-    <t>CDI-85-048-570-2010</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-2009</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>CDI-85-048-570-3027</t>
   </si>
   <si>
+    <t>CDI-85-048-570-1026</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-1024</t>
   </si>
   <si>
-    <t>CDI-85-048-570-1026</t>
-  </si>
-  <si>
     <t>SRO-85-048-570</t>
   </si>
   <si>
@@ -292,18 +292,18 @@
     <t>CDI-85-048-570-2008</t>
   </si>
   <si>
+    <t>CDI-85-048-570-3028</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-3029</t>
   </si>
   <si>
-    <t>CDI-85-048-570-3028</t>
+    <t>CDI-85-048-570-2006</t>
   </si>
   <si>
     <t>CDI-85-048-570-2007</t>
   </si>
   <si>
-    <t>CDI-85-048-570-2006</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-2031</t>
   </si>
   <si>
@@ -313,12 +313,12 @@
     <t>CDI-85-048-570-3030</t>
   </si>
   <si>
+    <t>CDI-85-048-570-2004</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-2005</t>
   </si>
   <si>
-    <t>CDI-85-048-570-2004</t>
-  </si>
-  <si>
     <t>CDI-85-048-570-2003</t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>CDI-85-048-570-1020</t>
   </si>
   <si>
-    <t>CODE AFFAIRE non</t>
+    <t>AA27-123302</t>
   </si>
   <si>
     <t>CDI-85-048-570-2002</t>
@@ -352,21 +352,60 @@
     <t>CDI-85-048-570-3003</t>
   </si>
   <si>
+    <t>AA27-124060</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-3022</t>
   </si>
   <si>
+    <t>AA27-124067</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-3021</t>
   </si>
   <si>
+    <t>AA27-121605</t>
+  </si>
+  <si>
+    <t>AA27-125235</t>
+  </si>
+  <si>
+    <t>AA27-124061</t>
+  </si>
+  <si>
+    <t>AA27-124062</t>
+  </si>
+  <si>
+    <t>AA27-124065</t>
+  </si>
+  <si>
+    <t>AA27-124064</t>
+  </si>
+  <si>
     <t>CDI-85-048-570-2012</t>
   </si>
   <si>
+    <t>AA27-124066</t>
+  </si>
+  <si>
+    <t>AA27-124063</t>
+  </si>
+  <si>
+    <t>AA27-121606</t>
+  </si>
+  <si>
     <t>AA27-118499</t>
   </si>
   <si>
     <t>AA27-117401</t>
   </si>
   <si>
+    <t>AA27-123301</t>
+  </si>
+  <si>
+    <t>AA27-125233</t>
+  </si>
+  <si>
     <t>288Fo</t>
   </si>
   <si>
@@ -916,6 +955,9 @@
     <t>POT-85031-7431</t>
   </si>
   <si>
+    <t>POT-85031-7439</t>
+  </si>
+  <si>
     <t>POT-85031-7440</t>
   </si>
   <si>
@@ -941,6 +983,9 @@
   </si>
   <si>
     <t>POT-85031-7465</t>
+  </si>
+  <si>
+    <t>POT-85031-7499</t>
   </si>
   <si>
     <t>POT-85031-7507</t>
@@ -1337,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1323"/>
+  <dimension ref="A1:H1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -1430,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1530,10 +1575,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1550,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1570,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -1593,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -1610,10 +1655,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -1630,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
@@ -1650,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1730,10 +1775,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
@@ -1793,7 +1838,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -1893,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>15</v>
@@ -1913,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
@@ -1933,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
@@ -1993,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
@@ -2070,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>15</v>
@@ -2090,10 +2135,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
@@ -2110,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>40</v>
@@ -2130,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
@@ -2150,10 +2195,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -2230,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>15</v>
@@ -2253,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
@@ -2270,10 +2315,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>15</v>
@@ -2290,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>29</v>
@@ -2350,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>47</v>
@@ -2390,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>49</v>
@@ -2410,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>50</v>
@@ -2433,7 +2478,7 @@
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>15</v>
@@ -2470,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>52</v>
@@ -2490,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>53</v>
@@ -2530,10 +2575,10 @@
         <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>15</v>
@@ -2550,10 +2595,10 @@
         <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>15</v>
@@ -2630,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>15</v>
@@ -2650,10 +2695,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>15</v>
@@ -2673,7 +2718,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>15</v>
@@ -2753,7 +2798,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>15</v>
@@ -2793,7 +2838,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>15</v>
@@ -2813,7 +2858,7 @@
         <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>15</v>
@@ -2830,10 +2875,10 @@
         <v>12</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>15</v>
@@ -2853,7 +2898,7 @@
         <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>15</v>
@@ -2870,10 +2915,10 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>15</v>
@@ -3070,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>66</v>
@@ -3090,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>67</v>
@@ -3133,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>15</v>
@@ -3173,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>15</v>
@@ -3193,7 +3238,7 @@
         <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>15</v>
@@ -3253,7 +3298,7 @@
         <v>13</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>15</v>
@@ -3313,7 +3358,7 @@
         <v>23</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>15</v>
@@ -3570,10 +3615,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>15</v>
@@ -3590,10 +3635,10 @@
         <v>12</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>15</v>
@@ -3613,7 +3658,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>15</v>
@@ -3633,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>15</v>
@@ -3653,7 +3698,7 @@
         <v>23</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>15</v>
@@ -3750,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>52</v>
@@ -3770,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>53</v>
@@ -3830,10 +3875,10 @@
         <v>12</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>15</v>
@@ -3850,10 +3895,10 @@
         <v>12</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>15</v>
@@ -3870,10 +3915,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>15</v>
@@ -3890,10 +3935,10 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>15</v>
@@ -3910,10 +3955,10 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>15</v>
@@ -3930,10 +3975,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>15</v>
@@ -4010,10 +4055,10 @@
         <v>12</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>15</v>
@@ -4030,10 +4075,10 @@
         <v>12</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>15</v>
@@ -4150,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>66</v>
@@ -4170,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>67</v>
@@ -4193,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>15</v>
@@ -4213,7 +4258,7 @@
         <v>32</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>15</v>
@@ -4233,7 +4278,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>15</v>
@@ -4253,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>15</v>
@@ -4273,7 +4318,7 @@
         <v>13</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>15</v>
@@ -4293,7 +4338,7 @@
         <v>13</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>15</v>
@@ -4313,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>15</v>
@@ -4453,7 +4498,7 @@
         <v>23</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>15</v>
@@ -4473,7 +4518,7 @@
         <v>23</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>15</v>
@@ -4510,10 +4555,10 @@
         <v>12</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>15</v>
@@ -4530,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>15</v>
@@ -4653,7 +4698,7 @@
         <v>23</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>15</v>
@@ -4713,7 +4758,7 @@
         <v>23</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>15</v>
@@ -4770,10 +4815,10 @@
         <v>12</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>15</v>
@@ -4790,10 +4835,10 @@
         <v>12</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>15</v>
@@ -4810,10 +4855,10 @@
         <v>12</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>15</v>
@@ -4830,10 +4875,10 @@
         <v>12</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>15</v>
@@ -4933,7 +4978,7 @@
         <v>23</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>15</v>
@@ -4970,10 +5015,10 @@
         <v>12</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>15</v>
@@ -4993,7 +5038,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>15</v>
@@ -5010,10 +5055,10 @@
         <v>12</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>15</v>
@@ -5033,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>15</v>
@@ -5073,7 +5118,7 @@
         <v>23</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>15</v>
@@ -5133,7 +5178,7 @@
         <v>13</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>15</v>
@@ -5150,7 +5195,7 @@
         <v>12</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>92</v>
@@ -5170,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>93</v>
@@ -5193,7 +5238,7 @@
         <v>32</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>15</v>
@@ -5213,7 +5258,7 @@
         <v>32</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>15</v>
@@ -5233,7 +5278,7 @@
         <v>23</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>15</v>
@@ -5370,10 +5415,10 @@
         <v>12</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>15</v>
@@ -5390,10 +5435,10 @@
         <v>12</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>15</v>
@@ -5450,10 +5495,10 @@
         <v>12</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>15</v>
@@ -5470,10 +5515,10 @@
         <v>12</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>15</v>
@@ -5490,10 +5535,10 @@
         <v>12</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>15</v>
@@ -5510,10 +5555,10 @@
         <v>12</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>15</v>
@@ -5590,10 +5635,10 @@
         <v>12</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>15</v>
@@ -5613,7 +5658,7 @@
         <v>13</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>15</v>
@@ -5630,10 +5675,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>15</v>
@@ -5650,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>67</v>
@@ -5670,7 +5715,7 @@
         <v>12</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>66</v>
@@ -5693,7 +5738,7 @@
         <v>32</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>15</v>
@@ -5710,10 +5755,10 @@
         <v>12</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>15</v>
@@ -5730,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>15</v>
@@ -5753,7 +5798,7 @@
         <v>23</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>15</v>
@@ -5773,7 +5818,7 @@
         <v>13</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>15</v>
@@ -5793,7 +5838,7 @@
         <v>13</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>15</v>
@@ -5813,7 +5858,7 @@
         <v>23</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>15</v>
@@ -5850,10 +5895,10 @@
         <v>12</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>15</v>
@@ -5870,10 +5915,10 @@
         <v>12</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>15</v>
@@ -5913,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>15</v>
@@ -5933,7 +5978,7 @@
         <v>23</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>15</v>
@@ -5973,7 +6018,7 @@
         <v>23</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>15</v>
@@ -5990,10 +6035,10 @@
         <v>12</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>15</v>
@@ -6010,10 +6055,10 @@
         <v>12</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>15</v>
@@ -6113,7 +6158,7 @@
         <v>41</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>15</v>
@@ -6133,7 +6178,7 @@
         <v>41</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>15</v>
@@ -6150,10 +6195,10 @@
         <v>12</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>15</v>
@@ -6170,10 +6215,10 @@
         <v>12</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>15</v>
@@ -6193,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>15</v>
@@ -6210,10 +6255,10 @@
         <v>12</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>15</v>
@@ -6230,10 +6275,10 @@
         <v>12</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>15</v>
@@ -6253,7 +6298,7 @@
         <v>13</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>15</v>
@@ -6270,10 +6315,10 @@
         <v>12</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>15</v>
@@ -6290,10 +6335,10 @@
         <v>12</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>15</v>
@@ -6313,7 +6358,7 @@
         <v>23</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>15</v>
@@ -6350,10 +6395,10 @@
         <v>12</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>15</v>
@@ -6370,10 +6415,10 @@
         <v>12</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>15</v>
@@ -6390,10 +6435,10 @@
         <v>12</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>15</v>
@@ -6410,10 +6455,10 @@
         <v>12</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>15</v>
@@ -6430,10 +6475,10 @@
         <v>12</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>15</v>
@@ -6450,10 +6495,10 @@
         <v>12</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>15</v>
@@ -6473,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>15</v>
@@ -6493,7 +6538,7 @@
         <v>13</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>15</v>
@@ -6533,7 +6578,7 @@
         <v>13</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>15</v>
@@ -6553,7 +6598,7 @@
         <v>13</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>15</v>
@@ -6573,7 +6618,7 @@
         <v>13</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>15</v>
@@ -6593,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>15</v>
@@ -6613,7 +6658,7 @@
         <v>32</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>15</v>
@@ -6633,7 +6678,7 @@
         <v>32</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>15</v>
@@ -6653,7 +6698,7 @@
         <v>13</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>15</v>
@@ -6673,7 +6718,7 @@
         <v>32</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>15</v>
@@ -6693,7 +6738,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>15</v>
@@ -6790,10 +6835,10 @@
         <v>12</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>15</v>
@@ -6810,10 +6855,10 @@
         <v>12</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>15</v>
@@ -6853,7 +6898,7 @@
         <v>23</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>15</v>
@@ -6893,7 +6938,7 @@
         <v>23</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>15</v>
@@ -6933,7 +6978,7 @@
         <v>23</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>15</v>
@@ -6950,10 +6995,10 @@
         <v>12</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>15</v>
@@ -6970,10 +7015,10 @@
         <v>12</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>15</v>
@@ -6993,7 +7038,7 @@
         <v>13</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>15</v>
@@ -7010,10 +7055,10 @@
         <v>12</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>15</v>
@@ -7030,10 +7075,10 @@
         <v>12</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>15</v>
@@ -7090,10 +7135,10 @@
         <v>12</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>15</v>
@@ -7110,10 +7155,10 @@
         <v>12</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>15</v>
@@ -7233,7 +7278,7 @@
         <v>23</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>15</v>
@@ -7253,7 +7298,7 @@
         <v>23</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>15</v>
@@ -7273,7 +7318,7 @@
         <v>23</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>15</v>
@@ -7293,7 +7338,7 @@
         <v>23</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>15</v>
@@ -7490,10 +7535,10 @@
         <v>12</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>15</v>
@@ -7510,10 +7555,10 @@
         <v>12</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>15</v>
@@ -7533,7 +7578,7 @@
         <v>23</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>15</v>
@@ -7553,7 +7598,7 @@
         <v>23</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>15</v>
@@ -7713,7 +7758,7 @@
         <v>13</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>15</v>
@@ -7733,7 +7778,7 @@
         <v>23</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>15</v>
@@ -7753,7 +7798,7 @@
         <v>23</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>15</v>
@@ -7773,7 +7818,7 @@
         <v>23</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>15</v>
@@ -7793,7 +7838,7 @@
         <v>23</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>15</v>
@@ -7813,7 +7858,7 @@
         <v>23</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>15</v>
@@ -7833,7 +7878,7 @@
         <v>23</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>15</v>
@@ -8113,7 +8158,7 @@
         <v>23</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>15</v>
@@ -8150,10 +8195,10 @@
         <v>12</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>15</v>
@@ -8170,10 +8215,10 @@
         <v>12</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>15</v>
@@ -8250,10 +8295,10 @@
         <v>12</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>15</v>
@@ -8270,10 +8315,10 @@
         <v>12</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>15</v>
@@ -8293,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>15</v>
@@ -8333,7 +8378,7 @@
         <v>23</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>15</v>
@@ -8353,7 +8398,7 @@
         <v>13</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>15</v>
@@ -8370,7 +8415,7 @@
         <v>12</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>52</v>
@@ -8390,7 +8435,7 @@
         <v>12</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>53</v>
@@ -8413,7 +8458,7 @@
         <v>23</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>15</v>
@@ -8453,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>15</v>
@@ -8493,7 +8538,7 @@
         <v>13</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>15</v>
@@ -8513,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>15</v>
@@ -8533,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>15</v>
@@ -8553,7 +8598,7 @@
         <v>13</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>15</v>
@@ -8573,7 +8618,7 @@
         <v>13</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>15</v>
@@ -8593,7 +8638,7 @@
         <v>13</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>15</v>
@@ -8613,7 +8658,7 @@
         <v>13</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>15</v>
@@ -8633,7 +8678,7 @@
         <v>13</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>15</v>
@@ -8713,7 +8758,7 @@
         <v>32</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>15</v>
@@ -8733,7 +8778,7 @@
         <v>32</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>15</v>
@@ -8753,7 +8798,7 @@
         <v>32</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>15</v>
@@ -8773,7 +8818,7 @@
         <v>32</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>15</v>
@@ -8793,7 +8838,7 @@
         <v>32</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>15</v>
@@ -8813,7 +8858,7 @@
         <v>32</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>15</v>
@@ -8830,7 +8875,7 @@
         <v>12</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>66</v>
@@ -8850,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>67</v>
@@ -8873,7 +8918,7 @@
         <v>32</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>15</v>
@@ -8893,7 +8938,7 @@
         <v>13</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>15</v>
@@ -8913,7 +8958,7 @@
         <v>32</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>15</v>
@@ -8933,7 +8978,7 @@
         <v>13</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>15</v>
@@ -8950,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>67</v>
@@ -8970,7 +9015,7 @@
         <v>12</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>66</v>
@@ -9030,10 +9075,10 @@
         <v>12</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>15</v>
@@ -9050,10 +9095,10 @@
         <v>12</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>15</v>
@@ -9070,10 +9115,10 @@
         <v>12</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>15</v>
@@ -9090,10 +9135,10 @@
         <v>12</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>15</v>
@@ -9213,7 +9258,7 @@
         <v>23</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>15</v>
@@ -9253,7 +9298,7 @@
         <v>23</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>15</v>
@@ -9293,7 +9338,7 @@
         <v>23</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>15</v>
@@ -9310,10 +9355,10 @@
         <v>12</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>15</v>
@@ -9330,10 +9375,10 @@
         <v>12</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>15</v>
@@ -9353,7 +9398,7 @@
         <v>13</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>15</v>
@@ -9373,7 +9418,7 @@
         <v>32</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>15</v>
@@ -9510,7 +9555,7 @@
         <v>12</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>92</v>
@@ -9530,7 +9575,7 @@
         <v>12</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>93</v>
@@ -9550,7 +9595,7 @@
         <v>12</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>92</v>
@@ -9570,7 +9615,7 @@
         <v>12</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>93</v>
@@ -9593,7 +9638,7 @@
         <v>13</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>15</v>
@@ -9773,7 +9818,7 @@
         <v>23</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>15</v>
@@ -9793,7 +9838,7 @@
         <v>23</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>15</v>
@@ -9813,7 +9858,7 @@
         <v>23</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>15</v>
@@ -9873,7 +9918,7 @@
         <v>32</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>15</v>
@@ -9893,7 +9938,7 @@
         <v>32</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>15</v>
@@ -10013,7 +10058,7 @@
         <v>23</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>15</v>
@@ -10033,7 +10078,7 @@
         <v>23</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>15</v>
@@ -10053,7 +10098,7 @@
         <v>23</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>15</v>
@@ -10073,7 +10118,7 @@
         <v>23</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>15</v>
@@ -10113,7 +10158,7 @@
         <v>23</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>15</v>
@@ -10233,7 +10278,7 @@
         <v>23</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>15</v>
@@ -10253,7 +10298,7 @@
         <v>23</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>15</v>
@@ -10313,7 +10358,7 @@
         <v>23</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>15</v>
@@ -10373,7 +10418,7 @@
         <v>102</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>15</v>
@@ -10393,7 +10438,7 @@
         <v>102</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>15</v>
@@ -10513,7 +10558,7 @@
         <v>23</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>15</v>
@@ -10613,7 +10658,7 @@
         <v>23</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>15</v>
@@ -10673,7 +10718,7 @@
         <v>41</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>15</v>
@@ -10693,7 +10738,7 @@
         <v>41</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>15</v>
@@ -10713,7 +10758,7 @@
         <v>13</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>15</v>
@@ -10730,10 +10775,10 @@
         <v>12</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>15</v>
@@ -10750,10 +10795,10 @@
         <v>12</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>15</v>
@@ -10773,7 +10818,7 @@
         <v>32</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>15</v>
@@ -10793,7 +10838,7 @@
         <v>13</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>15</v>
@@ -10810,7 +10855,7 @@
         <v>12</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>52</v>
@@ -10830,7 +10875,7 @@
         <v>12</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>53</v>
@@ -10850,10 +10895,10 @@
         <v>12</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>15</v>
@@ -10870,10 +10915,10 @@
         <v>12</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>15</v>
@@ -10913,7 +10958,7 @@
         <v>23</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>15</v>
@@ -10953,7 +10998,7 @@
         <v>13</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>15</v>
@@ -11133,7 +11178,7 @@
         <v>13</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>15</v>
@@ -11153,7 +11198,7 @@
         <v>13</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>15</v>
@@ -11213,7 +11258,7 @@
         <v>32</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>15</v>
@@ -11233,7 +11278,7 @@
         <v>32</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>15</v>
@@ -11250,10 +11295,10 @@
         <v>12</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>15</v>
@@ -11270,10 +11315,10 @@
         <v>12</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>15</v>
@@ -11290,10 +11335,10 @@
         <v>12</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>15</v>
@@ -11310,10 +11355,10 @@
         <v>12</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>15</v>
@@ -11353,7 +11398,7 @@
         <v>13</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>15</v>
@@ -11373,7 +11418,7 @@
         <v>13</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>15</v>
@@ -11393,7 +11438,7 @@
         <v>13</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>15</v>
@@ -11430,10 +11475,10 @@
         <v>12</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>15</v>
@@ -11470,10 +11515,10 @@
         <v>12</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>15</v>
@@ -11490,10 +11535,10 @@
         <v>12</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>15</v>
@@ -11510,10 +11555,10 @@
         <v>12</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>15</v>
@@ -11553,7 +11598,7 @@
         <v>23</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>15</v>
@@ -11573,7 +11618,7 @@
         <v>32</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>15</v>
@@ -11730,10 +11775,10 @@
         <v>12</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>15</v>
@@ -11750,10 +11795,10 @@
         <v>12</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>15</v>
@@ -11873,7 +11918,7 @@
         <v>23</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>15</v>
@@ -11913,7 +11958,7 @@
         <v>41</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>15</v>
@@ -11930,10 +11975,10 @@
         <v>12</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>15</v>
@@ -11950,10 +11995,10 @@
         <v>12</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>15</v>
@@ -11970,10 +12015,10 @@
         <v>12</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>15</v>
@@ -11990,10 +12035,10 @@
         <v>12</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>15</v>
@@ -12010,10 +12055,10 @@
         <v>12</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>15</v>
@@ -12050,10 +12095,10 @@
         <v>12</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>15</v>
@@ -12113,7 +12158,7 @@
         <v>23</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>15</v>
@@ -12153,7 +12198,7 @@
         <v>23</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>15</v>
@@ -12330,10 +12375,10 @@
         <v>12</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>15</v>
@@ -12350,10 +12395,10 @@
         <v>12</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>15</v>
@@ -12373,7 +12418,7 @@
         <v>41</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>15</v>
@@ -12393,7 +12438,7 @@
         <v>23</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>15</v>
@@ -12413,7 +12458,7 @@
         <v>23</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>15</v>
@@ -12453,7 +12498,7 @@
         <v>23</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>15</v>
@@ -12473,7 +12518,7 @@
         <v>32</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>15</v>
@@ -12490,10 +12535,10 @@
         <v>12</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>15</v>
@@ -12510,10 +12555,10 @@
         <v>12</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>15</v>
@@ -12530,10 +12575,10 @@
         <v>12</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>15</v>
@@ -12550,10 +12595,10 @@
         <v>12</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>15</v>
@@ -12570,10 +12615,10 @@
         <v>12</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>15</v>
@@ -12590,10 +12635,10 @@
         <v>12</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>15</v>
@@ -12610,10 +12655,10 @@
         <v>12</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>15</v>
@@ -12650,10 +12695,10 @@
         <v>12</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>15</v>
@@ -12670,10 +12715,10 @@
         <v>12</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>15</v>
@@ -12690,10 +12735,10 @@
         <v>12</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>15</v>
@@ -12733,7 +12778,7 @@
         <v>23</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D570" s="2" t="s">
         <v>15</v>
@@ -12910,7 +12955,7 @@
         <v>12</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>66</v>
@@ -12930,7 +12975,7 @@
         <v>12</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>67</v>
@@ -13273,7 +13318,7 @@
         <v>23</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D597" s="2" t="s">
         <v>15</v>
@@ -13293,7 +13338,7 @@
         <v>23</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D598" s="2" t="s">
         <v>15</v>
@@ -13330,10 +13375,10 @@
         <v>12</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>15</v>
@@ -13350,10 +13395,10 @@
         <v>12</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>15</v>
@@ -13413,7 +13458,7 @@
         <v>23</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D604" s="2" t="s">
         <v>15</v>
@@ -13450,10 +13495,10 @@
         <v>12</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>15</v>
@@ -13470,10 +13515,10 @@
         <v>12</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>15</v>
@@ -13490,10 +13535,10 @@
         <v>12</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>15</v>
@@ -13510,10 +13555,10 @@
         <v>12</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>15</v>
@@ -13530,10 +13575,10 @@
         <v>12</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>15</v>
@@ -13550,10 +13595,10 @@
         <v>12</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>15</v>
@@ -13570,10 +13615,10 @@
         <v>12</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>15</v>
@@ -13590,10 +13635,10 @@
         <v>12</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D613" s="2" t="s">
         <v>15</v>
@@ -13630,7 +13675,7 @@
         <v>12</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>66</v>
@@ -13650,7 +13695,7 @@
         <v>12</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>67</v>
@@ -13673,7 +13718,7 @@
         <v>13</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D617" s="2" t="s">
         <v>15</v>
@@ -13693,7 +13738,7 @@
         <v>13</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>15</v>
@@ -13733,7 +13778,7 @@
         <v>13</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>15</v>
@@ -13753,7 +13798,7 @@
         <v>23</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D621" s="2" t="s">
         <v>15</v>
@@ -13793,7 +13838,7 @@
         <v>23</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D623" s="2" t="s">
         <v>15</v>
@@ -13850,10 +13895,10 @@
         <v>12</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>15</v>
@@ -13870,10 +13915,10 @@
         <v>12</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D627" s="2" t="s">
         <v>15</v>
@@ -13893,7 +13938,7 @@
         <v>13</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D628" s="2" t="s">
         <v>15</v>
@@ -13913,7 +13958,7 @@
         <v>23</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>15</v>
@@ -13953,7 +13998,7 @@
         <v>23</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D631" s="2" t="s">
         <v>15</v>
@@ -13973,7 +14018,7 @@
         <v>32</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D632" s="2" t="s">
         <v>15</v>
@@ -13993,7 +14038,7 @@
         <v>32</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>15</v>
@@ -14053,7 +14098,7 @@
         <v>23</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>15</v>
@@ -14113,7 +14158,7 @@
         <v>23</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D639" s="2" t="s">
         <v>15</v>
@@ -14133,7 +14178,7 @@
         <v>23</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D640" s="2" t="s">
         <v>15</v>
@@ -14150,10 +14195,10 @@
         <v>12</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D641" s="2" t="s">
         <v>15</v>
@@ -14170,10 +14215,10 @@
         <v>12</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D642" s="2" t="s">
         <v>15</v>
@@ -14190,10 +14235,10 @@
         <v>12</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D643" s="2" t="s">
         <v>15</v>
@@ -14219,7 +14264,7 @@
         <v>15</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
@@ -14233,13 +14278,13 @@
         <v>32</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D645" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
@@ -14253,7 +14298,7 @@
         <v>32</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D646" s="2" t="s">
         <v>15</v>
@@ -14270,10 +14315,10 @@
         <v>12</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D647" s="2" t="s">
         <v>15</v>
@@ -14310,10 +14355,10 @@
         <v>12</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D649" s="2" t="s">
         <v>15</v>
@@ -14333,13 +14378,13 @@
         <v>32</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D650" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
@@ -14353,13 +14398,13 @@
         <v>32</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D651" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
@@ -14373,7 +14418,7 @@
         <v>13</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>15</v>
@@ -14393,7 +14438,7 @@
         <v>13</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>15</v>
@@ -14419,7 +14464,7 @@
         <v>15</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
@@ -14453,13 +14498,13 @@
         <v>32</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
@@ -14479,7 +14524,7 @@
         <v>15</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
@@ -14519,7 +14564,7 @@
         <v>15</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
@@ -14539,7 +14584,7 @@
         <v>15</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
@@ -14559,7 +14604,7 @@
         <v>15</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
@@ -14579,7 +14624,7 @@
         <v>15</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
@@ -14599,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
@@ -14613,13 +14658,13 @@
         <v>23</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D664" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
@@ -14639,7 +14684,7 @@
         <v>15</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
@@ -14659,7 +14704,7 @@
         <v>15</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
@@ -14670,10 +14715,10 @@
         <v>12</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D667" s="2" t="s">
         <v>15</v>
@@ -14690,10 +14735,10 @@
         <v>12</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D668" s="2" t="s">
         <v>15</v>
@@ -14710,10 +14755,10 @@
         <v>12</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D669" s="2" t="s">
         <v>15</v>
@@ -14730,10 +14775,10 @@
         <v>12</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>15</v>
@@ -14793,13 +14838,13 @@
         <v>32</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D673" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
@@ -14810,16 +14855,16 @@
         <v>12</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D674" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
@@ -14830,16 +14875,16 @@
         <v>12</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D675" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
@@ -14850,16 +14895,16 @@
         <v>12</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D676" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
@@ -14870,16 +14915,16 @@
         <v>12</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
@@ -14890,16 +14935,16 @@
         <v>12</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D678" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
@@ -14910,16 +14955,16 @@
         <v>12</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D679" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
@@ -14979,7 +15024,7 @@
         <v>15</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
@@ -14999,7 +15044,7 @@
         <v>15</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
@@ -15010,10 +15055,10 @@
         <v>12</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D684" s="2" t="s">
         <v>15</v>
@@ -15050,10 +15095,10 @@
         <v>12</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>15</v>
@@ -15119,7 +15164,7 @@
         <v>15</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
@@ -15139,7 +15184,7 @@
         <v>15</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
@@ -15159,7 +15204,7 @@
         <v>15</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
@@ -15199,7 +15244,7 @@
         <v>15</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
@@ -15219,7 +15264,7 @@
         <v>15</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
@@ -15239,7 +15284,7 @@
         <v>15</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
@@ -15299,7 +15344,7 @@
         <v>15</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
@@ -15333,7 +15378,7 @@
         <v>13</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D700" s="2" t="s">
         <v>15</v>
@@ -15373,7 +15418,7 @@
         <v>23</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D702" s="2" t="s">
         <v>15</v>
@@ -15390,10 +15435,10 @@
         <v>12</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D703" s="2" t="s">
         <v>15</v>
@@ -15410,10 +15455,10 @@
         <v>12</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>15</v>
@@ -15430,10 +15475,10 @@
         <v>12</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D705" s="2" t="s">
         <v>15</v>
@@ -15450,10 +15495,10 @@
         <v>12</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>15</v>
@@ -15473,7 +15518,7 @@
         <v>13</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D707" s="2" t="s">
         <v>15</v>
@@ -15493,7 +15538,7 @@
         <v>23</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>15</v>
@@ -15513,13 +15558,13 @@
         <v>32</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D709" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
@@ -15539,7 +15584,7 @@
         <v>15</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
@@ -15553,13 +15598,13 @@
         <v>32</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
@@ -15599,7 +15644,7 @@
         <v>15</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
@@ -15619,7 +15664,7 @@
         <v>15</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
@@ -15630,16 +15675,16 @@
         <v>12</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D715" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
@@ -15650,16 +15695,16 @@
         <v>12</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D716" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
@@ -15673,13 +15718,13 @@
         <v>13</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D717" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
@@ -15693,13 +15738,13 @@
         <v>32</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D718" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
@@ -15733,13 +15778,13 @@
         <v>32</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D720" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
@@ -15773,13 +15818,13 @@
         <v>23</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D722" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
@@ -15799,7 +15844,7 @@
         <v>15</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
@@ -15853,7 +15898,7 @@
         <v>32</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D726" s="2" t="s">
         <v>15</v>
@@ -15873,7 +15918,7 @@
         <v>32</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>15</v>
@@ -15890,10 +15935,10 @@
         <v>12</v>
       </c>
       <c r="B728" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C728" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D728" s="2" t="s">
         <v>15</v>
@@ -15910,10 +15955,10 @@
         <v>12</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>15</v>
@@ -15933,7 +15978,7 @@
         <v>23</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D730" s="2" t="s">
         <v>15</v>
@@ -15950,10 +15995,10 @@
         <v>12</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D731" s="2" t="s">
         <v>15</v>
@@ -15970,10 +16015,10 @@
         <v>12</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D732" s="2" t="s">
         <v>15</v>
@@ -15990,7 +16035,7 @@
         <v>12</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>27</v>
@@ -16010,10 +16055,10 @@
         <v>12</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D734" s="2" t="s">
         <v>15</v>
@@ -16033,7 +16078,7 @@
         <v>32</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D735" s="2" t="s">
         <v>15</v>
@@ -16050,10 +16095,10 @@
         <v>12</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D736" s="2" t="s">
         <v>15</v>
@@ -16070,10 +16115,10 @@
         <v>12</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D737" s="2" t="s">
         <v>15</v>
@@ -16093,7 +16138,7 @@
         <v>23</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D738" s="2" t="s">
         <v>15</v>
@@ -16110,10 +16155,10 @@
         <v>12</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D739" s="2" t="s">
         <v>15</v>
@@ -16153,7 +16198,7 @@
         <v>32</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>15</v>
@@ -16170,10 +16215,10 @@
         <v>12</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D742" s="2" t="s">
         <v>15</v>
@@ -16190,10 +16235,10 @@
         <v>12</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="D743" s="2" t="s">
         <v>15</v>
@@ -16233,7 +16278,7 @@
         <v>23</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D745" s="2" t="s">
         <v>15</v>
@@ -16250,10 +16295,10 @@
         <v>12</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D746" s="2" t="s">
         <v>15</v>
@@ -16270,10 +16315,10 @@
         <v>12</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D747" s="2" t="s">
         <v>15</v>
@@ -16290,10 +16335,10 @@
         <v>12</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="D748" s="2" t="s">
         <v>15</v>
@@ -16310,10 +16355,10 @@
         <v>12</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D749" s="2" t="s">
         <v>15</v>
@@ -16330,10 +16375,10 @@
         <v>12</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D750" s="2" t="s">
         <v>15</v>
@@ -16390,10 +16435,10 @@
         <v>12</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D753" s="2" t="s">
         <v>15</v>
@@ -16430,16 +16475,16 @@
         <v>12</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D755" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
@@ -16450,16 +16495,16 @@
         <v>12</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D756" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
@@ -16479,7 +16524,7 @@
         <v>15</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
@@ -16499,7 +16544,7 @@
         <v>15</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
@@ -16513,7 +16558,7 @@
         <v>32</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>15</v>
@@ -16550,10 +16595,10 @@
         <v>12</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D761" s="2" t="s">
         <v>15</v>
@@ -16570,10 +16615,10 @@
         <v>12</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D762" s="2" t="s">
         <v>15</v>
@@ -16593,7 +16638,7 @@
         <v>13</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D763" s="2" t="s">
         <v>15</v>
@@ -16613,7 +16658,7 @@
         <v>23</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D764" s="2" t="s">
         <v>15</v>
@@ -16630,10 +16675,10 @@
         <v>12</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D765" s="2" t="s">
         <v>15</v>
@@ -16650,10 +16695,10 @@
         <v>12</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>15</v>
@@ -16691,7 +16736,7 @@
       </c>
       <c r="B768" s="2"/>
       <c r="C768" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D768" s="2"/>
       <c r="E768" s="2" t="s">
@@ -16707,7 +16752,7 @@
       </c>
       <c r="B769" s="2"/>
       <c r="C769" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" s="2" t="s">
@@ -16723,7 +16768,7 @@
       </c>
       <c r="B770" s="2"/>
       <c r="C770" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" s="2" t="s">
@@ -16739,7 +16784,7 @@
       </c>
       <c r="B771" s="2"/>
       <c r="C771" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" s="2" t="s">
@@ -16755,7 +16800,7 @@
       </c>
       <c r="B772" s="2"/>
       <c r="C772" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" s="2" t="s">
@@ -16771,7 +16816,7 @@
       </c>
       <c r="B773" s="2"/>
       <c r="C773" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D773" s="2"/>
       <c r="E773" s="2" t="s">
@@ -16787,7 +16832,7 @@
       </c>
       <c r="B774" s="2"/>
       <c r="C774" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" s="2" t="s">
@@ -16803,7 +16848,7 @@
       </c>
       <c r="B775" s="2"/>
       <c r="C775" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" s="2" t="s">
@@ -16819,7 +16864,7 @@
       </c>
       <c r="B776" s="2"/>
       <c r="C776" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" s="2" t="s">
@@ -16835,7 +16880,7 @@
       </c>
       <c r="B777" s="2"/>
       <c r="C777" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D777" s="2"/>
       <c r="E777" s="2" t="s">
@@ -16851,7 +16896,7 @@
       </c>
       <c r="B778" s="2"/>
       <c r="C778" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D778" s="2"/>
       <c r="E778" s="2" t="s">
@@ -16867,7 +16912,7 @@
       </c>
       <c r="B779" s="2"/>
       <c r="C779" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D779" s="2"/>
       <c r="E779" s="2" t="s">
@@ -16883,7 +16928,7 @@
       </c>
       <c r="B780" s="2"/>
       <c r="C780" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D780" s="2"/>
       <c r="E780" s="2" t="s">
@@ -16899,11 +16944,11 @@
       </c>
       <c r="B781" s="2"/>
       <c r="C781" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D781" s="2"/>
       <c r="E781" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
@@ -16915,11 +16960,11 @@
       </c>
       <c r="B782" s="2"/>
       <c r="C782" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D782" s="2"/>
       <c r="E782" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
@@ -16931,7 +16976,7 @@
       </c>
       <c r="B783" s="2"/>
       <c r="C783" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D783" s="2"/>
       <c r="E783" s="2" t="s">
@@ -16947,7 +16992,7 @@
       </c>
       <c r="B784" s="2"/>
       <c r="C784" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D784" s="2"/>
       <c r="E784" s="2" t="s">
@@ -16963,7 +17008,7 @@
       </c>
       <c r="B785" s="2"/>
       <c r="C785" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" s="2" t="s">
@@ -16979,7 +17024,7 @@
       </c>
       <c r="B786" s="2"/>
       <c r="C786" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" s="2" t="s">
@@ -16995,7 +17040,7 @@
       </c>
       <c r="B787" s="2"/>
       <c r="C787" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" s="2" t="s">
@@ -17011,7 +17056,7 @@
       </c>
       <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" s="2" t="s">
@@ -17027,7 +17072,7 @@
       </c>
       <c r="B789" s="2"/>
       <c r="C789" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" s="2" t="s">
@@ -17043,7 +17088,7 @@
       </c>
       <c r="B790" s="2"/>
       <c r="C790" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" s="2" t="s">
@@ -17059,11 +17104,11 @@
       </c>
       <c r="B791" s="2"/>
       <c r="C791" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
@@ -17075,7 +17120,7 @@
       </c>
       <c r="B792" s="2"/>
       <c r="C792" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D792" s="2"/>
       <c r="E792" s="2" t="s">
@@ -17091,7 +17136,7 @@
       </c>
       <c r="B793" s="2"/>
       <c r="C793" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D793" s="2"/>
       <c r="E793" s="2" t="s">
@@ -17107,7 +17152,7 @@
       </c>
       <c r="B794" s="2"/>
       <c r="C794" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D794" s="2"/>
       <c r="E794" s="2" t="s">
@@ -17123,11 +17168,11 @@
       </c>
       <c r="B795" s="2"/>
       <c r="C795" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D795" s="2"/>
       <c r="E795" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
@@ -17139,7 +17184,7 @@
       </c>
       <c r="B796" s="2"/>
       <c r="C796" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D796" s="2"/>
       <c r="E796" s="2" t="s">
@@ -17155,11 +17200,11 @@
       </c>
       <c r="B797" s="2"/>
       <c r="C797" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D797" s="2"/>
       <c r="E797" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
@@ -17171,7 +17216,7 @@
       </c>
       <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D798" s="2"/>
       <c r="E798" s="2" t="s">
@@ -17187,7 +17232,7 @@
       </c>
       <c r="B799" s="2"/>
       <c r="C799" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D799" s="2"/>
       <c r="E799" s="2" t="s">
@@ -17203,7 +17248,7 @@
       </c>
       <c r="B800" s="2"/>
       <c r="C800" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D800" s="2"/>
       <c r="E800" s="2" t="s">
@@ -17219,11 +17264,11 @@
       </c>
       <c r="B801" s="2"/>
       <c r="C801" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D801" s="2"/>
       <c r="E801" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
@@ -17235,7 +17280,7 @@
       </c>
       <c r="B802" s="2"/>
       <c r="C802" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D802" s="2"/>
       <c r="E802" s="2" t="s">
@@ -17251,11 +17296,11 @@
       </c>
       <c r="B803" s="2"/>
       <c r="C803" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D803" s="2"/>
       <c r="E803" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
@@ -17267,11 +17312,11 @@
       </c>
       <c r="B804" s="2"/>
       <c r="C804" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D804" s="2"/>
       <c r="E804" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
@@ -17283,7 +17328,7 @@
       </c>
       <c r="B805" s="2"/>
       <c r="C805" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D805" s="2"/>
       <c r="E805" s="2" t="s">
@@ -17299,7 +17344,7 @@
       </c>
       <c r="B806" s="2"/>
       <c r="C806" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D806" s="2"/>
       <c r="E806" s="2" t="s">
@@ -17315,7 +17360,7 @@
       </c>
       <c r="B807" s="2"/>
       <c r="C807" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D807" s="2"/>
       <c r="E807" s="2" t="s">
@@ -17331,7 +17376,7 @@
       </c>
       <c r="B808" s="2"/>
       <c r="C808" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D808" s="2"/>
       <c r="E808" s="2" t="s">
@@ -17347,11 +17392,11 @@
       </c>
       <c r="B809" s="2"/>
       <c r="C809" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D809" s="2"/>
       <c r="E809" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
@@ -17363,11 +17408,11 @@
       </c>
       <c r="B810" s="2"/>
       <c r="C810" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D810" s="2"/>
       <c r="E810" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
@@ -17379,11 +17424,11 @@
       </c>
       <c r="B811" s="2"/>
       <c r="C811" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D811" s="2"/>
       <c r="E811" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
@@ -17395,11 +17440,11 @@
       </c>
       <c r="B812" s="2"/>
       <c r="C812" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D812" s="2"/>
       <c r="E812" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
@@ -17411,11 +17456,11 @@
       </c>
       <c r="B813" s="2"/>
       <c r="C813" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D813" s="2"/>
       <c r="E813" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
@@ -17427,11 +17472,11 @@
       </c>
       <c r="B814" s="2"/>
       <c r="C814" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D814" s="2"/>
       <c r="E814" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
@@ -17443,7 +17488,7 @@
       </c>
       <c r="B815" s="2"/>
       <c r="C815" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D815" s="2"/>
       <c r="E815" s="2" t="s">
@@ -17459,7 +17504,7 @@
       </c>
       <c r="B816" s="2"/>
       <c r="C816" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" s="2" t="s">
@@ -17475,7 +17520,7 @@
       </c>
       <c r="B817" s="2"/>
       <c r="C817" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D817" s="2"/>
       <c r="E817" s="2" t="s">
@@ -17491,11 +17536,11 @@
       </c>
       <c r="B818" s="2"/>
       <c r="C818" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D818" s="2"/>
       <c r="E818" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
@@ -17507,7 +17552,7 @@
       </c>
       <c r="B819" s="2"/>
       <c r="C819" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" s="2" t="s">
@@ -17523,7 +17568,7 @@
       </c>
       <c r="B820" s="2"/>
       <c r="C820" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" s="2" t="s">
@@ -17539,7 +17584,7 @@
       </c>
       <c r="B821" s="2"/>
       <c r="C821" s="2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" s="2" t="s">
@@ -17555,11 +17600,11 @@
       </c>
       <c r="B822" s="2"/>
       <c r="C822" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
@@ -17571,11 +17616,11 @@
       </c>
       <c r="B823" s="2"/>
       <c r="C823" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D823" s="2"/>
       <c r="E823" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F823" s="2"/>
       <c r="G823" s="2"/>
@@ -17587,7 +17632,7 @@
       </c>
       <c r="B824" s="2"/>
       <c r="C824" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D824" s="2"/>
       <c r="E824" s="2" t="s">
@@ -17603,11 +17648,11 @@
       </c>
       <c r="B825" s="2"/>
       <c r="C825" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
@@ -17619,7 +17664,7 @@
       </c>
       <c r="B826" s="2"/>
       <c r="C826" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D826" s="2"/>
       <c r="E826" s="2" t="s">
@@ -17635,11 +17680,11 @@
       </c>
       <c r="B827" s="2"/>
       <c r="C827" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
@@ -17651,11 +17696,11 @@
       </c>
       <c r="B828" s="2"/>
       <c r="C828" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F828" s="2"/>
       <c r="G828" s="2"/>
@@ -17667,11 +17712,11 @@
       </c>
       <c r="B829" s="2"/>
       <c r="C829" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F829" s="2"/>
       <c r="G829" s="2"/>
@@ -17683,11 +17728,11 @@
       </c>
       <c r="B830" s="2"/>
       <c r="C830" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F830" s="2"/>
       <c r="G830" s="2"/>
@@ -17699,7 +17744,7 @@
       </c>
       <c r="B831" s="2"/>
       <c r="C831" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" s="2" t="s">
@@ -17715,7 +17760,7 @@
       </c>
       <c r="B832" s="2"/>
       <c r="C832" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" s="2" t="s">
@@ -17731,11 +17776,11 @@
       </c>
       <c r="B833" s="2"/>
       <c r="C833" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
@@ -17747,11 +17792,11 @@
       </c>
       <c r="B834" s="2"/>
       <c r="C834" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F834" s="2"/>
       <c r="G834" s="2"/>
@@ -17763,7 +17808,7 @@
       </c>
       <c r="B835" s="2"/>
       <c r="C835" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" s="2" t="s">
@@ -17779,11 +17824,11 @@
       </c>
       <c r="B836" s="2"/>
       <c r="C836" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
@@ -17795,7 +17840,7 @@
       </c>
       <c r="B837" s="2"/>
       <c r="C837" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" s="2" t="s">
@@ -17811,7 +17856,7 @@
       </c>
       <c r="B838" s="2"/>
       <c r="C838" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" s="2" t="s">
@@ -17827,11 +17872,11 @@
       </c>
       <c r="B839" s="2"/>
       <c r="C839" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F839" s="2"/>
       <c r="G839" s="2"/>
@@ -17843,11 +17888,11 @@
       </c>
       <c r="B840" s="2"/>
       <c r="C840" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F840" s="2"/>
       <c r="G840" s="2"/>
@@ -17859,7 +17904,7 @@
       </c>
       <c r="B841" s="2"/>
       <c r="C841" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" s="2" t="s">
@@ -17875,7 +17920,7 @@
       </c>
       <c r="B842" s="2"/>
       <c r="C842" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D842" s="2"/>
       <c r="E842" s="2" t="s">
@@ -17891,7 +17936,7 @@
       </c>
       <c r="B843" s="2"/>
       <c r="C843" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" s="2" t="s">
@@ -17907,7 +17952,7 @@
       </c>
       <c r="B844" s="2"/>
       <c r="C844" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" s="2" t="s">
@@ -17923,11 +17968,11 @@
       </c>
       <c r="B845" s="2"/>
       <c r="C845" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F845" s="2"/>
       <c r="G845" s="2"/>
@@ -17939,7 +17984,7 @@
       </c>
       <c r="B846" s="2"/>
       <c r="C846" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" s="2" t="s">
@@ -17955,11 +18000,11 @@
       </c>
       <c r="B847" s="2"/>
       <c r="C847" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F847" s="2"/>
       <c r="G847" s="2"/>
@@ -17971,7 +18016,7 @@
       </c>
       <c r="B848" s="2"/>
       <c r="C848" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" s="2" t="s">
@@ -17987,7 +18032,7 @@
       </c>
       <c r="B849" s="2"/>
       <c r="C849" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" s="2" t="s">
@@ -18003,11 +18048,11 @@
       </c>
       <c r="B850" s="2"/>
       <c r="C850" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F850" s="2"/>
       <c r="G850" s="2"/>
@@ -18019,11 +18064,11 @@
       </c>
       <c r="B851" s="2"/>
       <c r="C851" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F851" s="2"/>
       <c r="G851" s="2"/>
@@ -18035,7 +18080,7 @@
       </c>
       <c r="B852" s="2"/>
       <c r="C852" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" s="2" t="s">
@@ -18051,7 +18096,7 @@
       </c>
       <c r="B853" s="2"/>
       <c r="C853" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" s="2" t="s">
@@ -18067,7 +18112,7 @@
       </c>
       <c r="B854" s="2"/>
       <c r="C854" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" s="2" t="s">
@@ -18083,11 +18128,11 @@
       </c>
       <c r="B855" s="2"/>
       <c r="C855" s="2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" s="2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F855" s="2"/>
       <c r="G855" s="2"/>
@@ -18099,11 +18144,11 @@
       </c>
       <c r="B856" s="2"/>
       <c r="C856" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" s="2" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F856" s="2"/>
       <c r="G856" s="2"/>
@@ -18115,11 +18160,11 @@
       </c>
       <c r="B857" s="2"/>
       <c r="C857" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F857" s="2"/>
       <c r="G857" s="2"/>
@@ -18131,11 +18176,11 @@
       </c>
       <c r="B858" s="2"/>
       <c r="C858" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F858" s="2"/>
       <c r="G858" s="2"/>
@@ -18147,7 +18192,7 @@
       </c>
       <c r="B859" s="2"/>
       <c r="C859" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" s="2" t="s">
@@ -18163,7 +18208,7 @@
       </c>
       <c r="B860" s="2"/>
       <c r="C860" s="2" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" s="2" t="s">
@@ -18194,7 +18239,7 @@
         <v>12</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -18211,11 +18256,11 @@
       </c>
       <c r="B863" s="2"/>
       <c r="C863" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F863" s="2"/>
       <c r="G863" s="2"/>
@@ -18258,10 +18303,10 @@
         <v>12</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="2" t="s">
@@ -18277,11 +18322,11 @@
       </c>
       <c r="B867" s="2"/>
       <c r="C867" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
@@ -18292,7 +18337,7 @@
         <v>12</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -18309,11 +18354,11 @@
       </c>
       <c r="B869" s="2"/>
       <c r="C869" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
@@ -18327,7 +18372,7 @@
         <v>32</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D870" s="2"/>
       <c r="E870" s="2" t="s">
@@ -18358,7 +18403,7 @@
         <v>12</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -18375,11 +18420,11 @@
       </c>
       <c r="B873" s="2"/>
       <c r="C873" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" s="2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
@@ -18393,7 +18438,7 @@
         <v>23</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="2" t="s">
@@ -18475,7 +18520,7 @@
         <v>41</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="2" t="s">
@@ -18490,10 +18535,10 @@
         <v>12</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="2" t="s">
@@ -18652,10 +18697,10 @@
         <v>12</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C890" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="2" t="s">
@@ -18670,16 +18715,16 @@
         <v>12</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D891" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E891" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
@@ -18707,11 +18752,11 @@
       </c>
       <c r="B893" s="2"/>
       <c r="C893" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F893" s="2"/>
       <c r="G893" s="2"/>
@@ -18930,7 +18975,7 @@
         <v>12</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -19010,7 +19055,7 @@
         <v>12</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -19027,11 +19072,11 @@
       </c>
       <c r="B913" s="2"/>
       <c r="C913" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F913" s="2"/>
       <c r="G913" s="2"/>
@@ -19045,7 +19090,7 @@
         <v>41</v>
       </c>
       <c r="C914" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D914" s="2"/>
       <c r="E914" s="2" t="s">
@@ -19060,7 +19105,7 @@
         <v>12</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -19076,7 +19121,7 @@
         <v>12</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -19092,7 +19137,7 @@
         <v>12</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -19124,7 +19169,7 @@
         <v>12</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -19141,11 +19186,11 @@
       </c>
       <c r="B920" s="2"/>
       <c r="C920" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D920" s="2"/>
       <c r="E920" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F920" s="2"/>
       <c r="G920" s="2"/>
@@ -19175,7 +19220,7 @@
         <v>13</v>
       </c>
       <c r="C922" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D922" s="2"/>
       <c r="E922" s="2" t="s">
@@ -19222,7 +19267,7 @@
         <v>12</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -19287,11 +19332,11 @@
       </c>
       <c r="B929" s="2"/>
       <c r="C929" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D929" s="2"/>
       <c r="E929" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F929" s="2"/>
       <c r="G929" s="2"/>
@@ -19321,7 +19366,7 @@
         <v>32</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D931" s="2"/>
       <c r="E931" s="2" t="s">
@@ -19337,11 +19382,11 @@
       </c>
       <c r="B932" s="2"/>
       <c r="C932" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D932" s="2"/>
       <c r="E932" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F932" s="2"/>
       <c r="G932" s="2"/>
@@ -19387,7 +19432,7 @@
         <v>32</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D935" s="2"/>
       <c r="E935" s="2" t="s">
@@ -19431,11 +19476,11 @@
       </c>
       <c r="B938" s="2"/>
       <c r="C938" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D938" s="2"/>
       <c r="E938" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F938" s="2"/>
       <c r="G938" s="2"/>
@@ -19462,10 +19507,10 @@
         <v>12</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C940" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D940" s="2"/>
       <c r="E940" s="2" t="s">
@@ -19483,7 +19528,7 @@
         <v>32</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D941" s="2"/>
       <c r="E941" s="2" t="s">
@@ -19578,7 +19623,7 @@
         <v>12</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -19594,7 +19639,7 @@
         <v>12</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -19611,11 +19656,11 @@
       </c>
       <c r="B949" s="2"/>
       <c r="C949" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D949" s="2"/>
       <c r="E949" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F949" s="2"/>
       <c r="G949" s="2"/>
@@ -19659,11 +19704,11 @@
       </c>
       <c r="B952" s="2"/>
       <c r="C952" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D952" s="2"/>
       <c r="E952" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F952" s="2"/>
       <c r="G952" s="2"/>
@@ -19706,7 +19751,7 @@
         <v>12</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -19723,11 +19768,11 @@
       </c>
       <c r="B956" s="2"/>
       <c r="C956" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D956" s="2"/>
       <c r="E956" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F956" s="2"/>
       <c r="G956" s="2"/>
@@ -19786,7 +19831,7 @@
         <v>12</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -19914,7 +19959,7 @@
         <v>12</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -19962,7 +20007,7 @@
         <v>12</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -19978,10 +20023,10 @@
         <v>12</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C972" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D972" s="2"/>
       <c r="E972" s="2" t="s">
@@ -19997,11 +20042,11 @@
       </c>
       <c r="B973" s="2"/>
       <c r="C973" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D973" s="2"/>
       <c r="E973" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F973" s="2"/>
       <c r="G973" s="2"/>
@@ -20028,10 +20073,10 @@
         <v>12</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C975" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D975" s="2"/>
       <c r="E975" s="2" t="s">
@@ -20047,11 +20092,11 @@
       </c>
       <c r="B976" s="2"/>
       <c r="C976" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D976" s="2"/>
       <c r="E976" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F976" s="2"/>
       <c r="G976" s="2"/>
@@ -20062,7 +20107,7 @@
         <v>12</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -20081,7 +20126,7 @@
         <v>32</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D978" s="2"/>
       <c r="E978" s="2" t="s">
@@ -20144,10 +20189,10 @@
         <v>12</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C982" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D982" s="2"/>
       <c r="E982" s="2" t="s">
@@ -20163,11 +20208,11 @@
       </c>
       <c r="B983" s="2"/>
       <c r="C983" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D983" s="2"/>
       <c r="E983" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F983" s="2"/>
       <c r="G983" s="2"/>
@@ -20226,7 +20271,7 @@
         <v>12</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -20323,11 +20368,11 @@
       </c>
       <c r="B993" s="2"/>
       <c r="C993" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D993" s="2"/>
       <c r="E993" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F993" s="2"/>
       <c r="G993" s="2"/>
@@ -20338,7 +20383,7 @@
         <v>12</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -20355,11 +20400,11 @@
       </c>
       <c r="B995" s="2"/>
       <c r="C995" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D995" s="2"/>
       <c r="E995" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F995" s="2"/>
       <c r="G995" s="2"/>
@@ -20386,7 +20431,7 @@
         <v>12</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -20418,7 +20463,7 @@
         <v>12</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -20435,11 +20480,11 @@
       </c>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1000" s="2"/>
       <c r="E1000" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F1000" s="2"/>
       <c r="G1000" s="2"/>
@@ -20466,7 +20511,7 @@
         <v>12</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1002" s="2"/>
       <c r="D1002" s="2"/>
@@ -20482,7 +20527,7 @@
         <v>12</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1003" s="2"/>
       <c r="D1003" s="2"/>
@@ -20498,7 +20543,7 @@
         <v>12</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1004" s="2"/>
       <c r="D1004" s="2"/>
@@ -20690,7 +20735,7 @@
         <v>12</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1016" s="2"/>
       <c r="D1016" s="2"/>
@@ -20738,14 +20783,14 @@
         <v>12</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C1019" s="2"/>
       <c r="D1019" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1019" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1019" s="2"/>
       <c r="G1019" s="2"/>
@@ -20756,10 +20801,10 @@
         <v>12</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1020" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D1020" s="2"/>
       <c r="E1020" s="2" t="s">
@@ -20774,7 +20819,7 @@
         <v>12</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C1021" s="2"/>
       <c r="D1021" s="2"/>
@@ -20806,7 +20851,7 @@
         <v>12</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C1023" s="2"/>
       <c r="D1023" s="2"/>
@@ -21094,7 +21139,7 @@
         <v>12</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C1041" s="2"/>
       <c r="D1041" s="2"/>
@@ -21111,11 +21156,11 @@
       </c>
       <c r="B1042" s="2"/>
       <c r="C1042" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1042" s="2"/>
       <c r="E1042" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F1042" s="2"/>
       <c r="G1042" s="2"/>
@@ -21270,14 +21315,14 @@
         <v>12</v>
       </c>
       <c r="B1052" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C1052" s="2"/>
       <c r="D1052" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1052" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1052" s="2"/>
       <c r="G1052" s="2"/>
@@ -21481,11 +21526,11 @@
       </c>
       <c r="B1065" s="2"/>
       <c r="C1065" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1065" s="2"/>
       <c r="E1065" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F1065" s="2"/>
       <c r="G1065" s="2"/>
@@ -21624,7 +21669,7 @@
         <v>12</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1074" s="2"/>
       <c r="D1074" s="2"/>
@@ -21688,7 +21733,7 @@
         <v>12</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C1078" s="2"/>
       <c r="D1078" s="2"/>
@@ -21705,11 +21750,11 @@
       </c>
       <c r="B1079" s="2"/>
       <c r="C1079" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1079" s="2"/>
       <c r="E1079" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F1079" s="2"/>
       <c r="G1079" s="2"/>
@@ -21752,7 +21797,7 @@
         <v>12</v>
       </c>
       <c r="B1082" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1082" s="2"/>
       <c r="D1082" s="2"/>
@@ -21769,11 +21814,11 @@
       </c>
       <c r="B1083" s="2"/>
       <c r="C1083" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1083" s="2"/>
       <c r="E1083" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F1083" s="2"/>
       <c r="G1083" s="2"/>
@@ -22056,7 +22101,7 @@
         <v>12</v>
       </c>
       <c r="B1101" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C1101" s="2"/>
       <c r="D1101" s="2"/>
@@ -22104,7 +22149,7 @@
         <v>12</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C1104" s="2"/>
       <c r="D1104" s="2"/>
@@ -22136,7 +22181,7 @@
         <v>12</v>
       </c>
       <c r="B1106" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1106" s="2"/>
       <c r="D1106" s="2"/>
@@ -22152,7 +22197,7 @@
         <v>12</v>
       </c>
       <c r="B1107" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1107" s="2"/>
       <c r="D1107" s="2"/>
@@ -22264,7 +22309,7 @@
         <v>12</v>
       </c>
       <c r="B1114" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1114" s="2"/>
       <c r="D1114" s="2"/>
@@ -22363,7 +22408,7 @@
         <v>41</v>
       </c>
       <c r="C1120" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D1120" s="2"/>
       <c r="E1120" s="2" t="s">
@@ -22378,7 +22423,7 @@
         <v>12</v>
       </c>
       <c r="B1121" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C1121" s="2"/>
       <c r="D1121" s="2"/>
@@ -22747,11 +22792,11 @@
       </c>
       <c r="B1144" s="2"/>
       <c r="C1144" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1144" s="2"/>
       <c r="E1144" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F1144" s="2"/>
       <c r="G1144" s="2"/>
@@ -22762,14 +22807,14 @@
         <v>12</v>
       </c>
       <c r="B1145" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C1145" s="2"/>
       <c r="D1145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1145" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1145" s="2"/>
       <c r="G1145" s="2"/>
@@ -22909,11 +22954,11 @@
       </c>
       <c r="B1154" s="2"/>
       <c r="C1154" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1154" s="2"/>
       <c r="E1154" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F1154" s="2"/>
       <c r="G1154" s="2"/>
@@ -22943,7 +22988,7 @@
         <v>102</v>
       </c>
       <c r="C1156" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D1156" s="2"/>
       <c r="E1156" s="2" t="s">
@@ -23055,11 +23100,11 @@
       </c>
       <c r="B1163" s="2"/>
       <c r="C1163" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1163" s="2"/>
       <c r="E1163" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F1163" s="2"/>
       <c r="G1163" s="2"/>
@@ -23153,7 +23198,7 @@
         <v>41</v>
       </c>
       <c r="C1169" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D1169" s="2"/>
       <c r="E1169" s="2" t="s">
@@ -23171,7 +23216,7 @@
         <v>13</v>
       </c>
       <c r="C1170" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D1170" s="2"/>
       <c r="E1170" s="2" t="s">
@@ -23187,11 +23232,11 @@
       </c>
       <c r="B1171" s="2"/>
       <c r="C1171" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1171" s="2"/>
       <c r="E1171" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F1171" s="2"/>
       <c r="G1171" s="2"/>
@@ -23218,10 +23263,10 @@
         <v>12</v>
       </c>
       <c r="B1173" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1173" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D1173" s="2"/>
       <c r="E1173" s="2" t="s">
@@ -23236,10 +23281,10 @@
         <v>12</v>
       </c>
       <c r="B1174" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1174" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D1174" s="2"/>
       <c r="E1174" s="2" t="s">
@@ -23255,11 +23300,11 @@
       </c>
       <c r="B1175" s="2"/>
       <c r="C1175" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1175" s="2"/>
       <c r="E1175" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F1175" s="2"/>
       <c r="G1175" s="2"/>
@@ -23303,11 +23348,11 @@
       </c>
       <c r="B1178" s="2"/>
       <c r="C1178" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1178" s="2"/>
       <c r="E1178" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F1178" s="2"/>
       <c r="G1178" s="2"/>
@@ -23401,7 +23446,7 @@
         <v>13</v>
       </c>
       <c r="C1184" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D1184" s="2"/>
       <c r="E1184" s="2" t="s">
@@ -23435,7 +23480,7 @@
         <v>32</v>
       </c>
       <c r="C1186" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D1186" s="2"/>
       <c r="E1186" s="2" t="s">
@@ -23466,7 +23511,7 @@
         <v>12</v>
       </c>
       <c r="B1188" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1188" s="2"/>
       <c r="D1188" s="2"/>
@@ -23482,7 +23527,7 @@
         <v>12</v>
       </c>
       <c r="B1189" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1189" s="2"/>
       <c r="D1189" s="2"/>
@@ -23517,7 +23562,7 @@
         <v>13</v>
       </c>
       <c r="C1191" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D1191" s="2"/>
       <c r="E1191" s="2" t="s">
@@ -23548,7 +23593,7 @@
         <v>12</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1193" s="2"/>
       <c r="D1193" s="2"/>
@@ -23565,11 +23610,11 @@
       </c>
       <c r="B1194" s="2"/>
       <c r="C1194" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1194" s="2"/>
       <c r="E1194" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F1194" s="2"/>
       <c r="G1194" s="2"/>
@@ -23707,7 +23752,7 @@
         <v>32</v>
       </c>
       <c r="C1203" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D1203" s="2"/>
       <c r="E1203" s="2" t="s">
@@ -23722,10 +23767,10 @@
         <v>12</v>
       </c>
       <c r="B1204" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C1204" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D1204" s="2"/>
       <c r="E1204" s="2" t="s">
@@ -23741,11 +23786,11 @@
       </c>
       <c r="B1205" s="2"/>
       <c r="C1205" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1205" s="2"/>
       <c r="E1205" s="2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F1205" s="2"/>
       <c r="G1205" s="2"/>
@@ -23821,11 +23866,11 @@
       </c>
       <c r="B1210" s="2"/>
       <c r="C1210" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1210" s="2"/>
       <c r="E1210" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F1210" s="2"/>
       <c r="G1210" s="2"/>
@@ -23839,7 +23884,7 @@
         <v>41</v>
       </c>
       <c r="C1211" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D1211" s="2"/>
       <c r="E1211" s="2" t="s">
@@ -23855,11 +23900,11 @@
       </c>
       <c r="B1212" s="2"/>
       <c r="C1212" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1212" s="2"/>
       <c r="E1212" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F1212" s="2"/>
       <c r="G1212" s="2"/>
@@ -23870,7 +23915,7 @@
         <v>12</v>
       </c>
       <c r="B1213" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1213" s="2"/>
       <c r="D1213" s="2"/>
@@ -23886,10 +23931,10 @@
         <v>12</v>
       </c>
       <c r="B1214" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1214" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D1214" s="2"/>
       <c r="E1214" s="2" t="s">
@@ -23905,11 +23950,11 @@
       </c>
       <c r="B1215" s="2"/>
       <c r="C1215" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1215" s="2"/>
       <c r="E1215" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F1215" s="2"/>
       <c r="G1215" s="2"/>
@@ -23985,11 +24030,11 @@
       </c>
       <c r="B1220" s="2"/>
       <c r="C1220" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1220" s="2"/>
       <c r="E1220" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F1220" s="2"/>
       <c r="G1220" s="2"/>
@@ -24033,11 +24078,11 @@
       </c>
       <c r="B1223" s="2"/>
       <c r="C1223" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1223" s="2"/>
       <c r="E1223" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F1223" s="2"/>
       <c r="G1223" s="2"/>
@@ -24065,11 +24110,11 @@
       </c>
       <c r="B1225" s="2"/>
       <c r="C1225" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1225" s="2"/>
       <c r="E1225" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F1225" s="2"/>
       <c r="G1225" s="2"/>
@@ -24128,7 +24173,7 @@
         <v>12</v>
       </c>
       <c r="B1229" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1229" s="2"/>
       <c r="D1229" s="2"/>
@@ -24163,7 +24208,7 @@
         <v>23</v>
       </c>
       <c r="C1231" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D1231" s="2"/>
       <c r="E1231" s="2" t="s">
@@ -24181,7 +24226,7 @@
         <v>23</v>
       </c>
       <c r="C1232" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D1232" s="2"/>
       <c r="E1232" s="2" t="s">
@@ -24197,11 +24242,11 @@
       </c>
       <c r="B1233" s="2"/>
       <c r="C1233" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1233" s="2"/>
       <c r="E1233" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F1233" s="2"/>
       <c r="G1233" s="2"/>
@@ -24212,7 +24257,7 @@
         <v>12</v>
       </c>
       <c r="B1234" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1234" s="2"/>
       <c r="D1234" s="2"/>
@@ -24229,11 +24274,11 @@
       </c>
       <c r="B1235" s="2"/>
       <c r="C1235" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1235" s="2"/>
       <c r="E1235" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F1235" s="2"/>
       <c r="G1235" s="2"/>
@@ -24244,7 +24289,7 @@
         <v>12</v>
       </c>
       <c r="B1236" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1236" s="2"/>
       <c r="D1236" s="2"/>
@@ -24260,7 +24305,7 @@
         <v>12</v>
       </c>
       <c r="B1237" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C1237" s="2"/>
       <c r="D1237" s="2"/>
@@ -24277,11 +24322,11 @@
       </c>
       <c r="B1238" s="2"/>
       <c r="C1238" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1238" s="2"/>
       <c r="E1238" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F1238" s="2"/>
       <c r="G1238" s="2"/>
@@ -24343,7 +24388,7 @@
         <v>13</v>
       </c>
       <c r="C1242" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D1242" s="2"/>
       <c r="E1242" s="2" t="s">
@@ -24393,7 +24438,7 @@
         <v>13</v>
       </c>
       <c r="C1245" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D1245" s="2"/>
       <c r="E1245" s="2" t="s">
@@ -24420,7 +24465,7 @@
         <v>12</v>
       </c>
       <c r="B1247" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C1247" s="2"/>
       <c r="D1247" s="2"/>
@@ -24547,7 +24592,7 @@
         <v>13</v>
       </c>
       <c r="C1255" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D1255" s="2"/>
       <c r="E1255" s="2" t="s">
@@ -24674,7 +24719,7 @@
         <v>12</v>
       </c>
       <c r="B1263" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C1263" s="2"/>
       <c r="D1263" s="2"/>
@@ -24738,7 +24783,7 @@
         <v>12</v>
       </c>
       <c r="B1267" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1267" s="2"/>
       <c r="D1267" s="2"/>
@@ -24754,7 +24799,7 @@
         <v>12</v>
       </c>
       <c r="B1268" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1268" s="2"/>
       <c r="D1268" s="2"/>
@@ -24770,7 +24815,7 @@
         <v>12</v>
       </c>
       <c r="B1269" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1269" s="2"/>
       <c r="D1269" s="2"/>
@@ -24786,7 +24831,7 @@
         <v>12</v>
       </c>
       <c r="B1270" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1270" s="2"/>
       <c r="D1270" s="2"/>
@@ -24803,11 +24848,11 @@
       </c>
       <c r="B1271" s="2"/>
       <c r="C1271" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1271" s="2"/>
       <c r="E1271" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F1271" s="2"/>
       <c r="G1271" s="2"/>
@@ -24834,7 +24879,7 @@
         <v>12</v>
       </c>
       <c r="B1273" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C1273" s="2"/>
       <c r="D1273" s="2"/>
@@ -24978,7 +25023,7 @@
         <v>12</v>
       </c>
       <c r="B1282" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1282" s="2"/>
       <c r="D1282" s="2"/>
@@ -24995,11 +25040,11 @@
       </c>
       <c r="B1283" s="2"/>
       <c r="C1283" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1283" s="2"/>
       <c r="E1283" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F1283" s="2"/>
       <c r="G1283" s="2"/>
@@ -25027,11 +25072,11 @@
       </c>
       <c r="B1285" s="2"/>
       <c r="C1285" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1285" s="2"/>
       <c r="E1285" s="2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F1285" s="2"/>
       <c r="G1285" s="2"/>
@@ -25075,11 +25120,11 @@
       </c>
       <c r="B1288" s="2"/>
       <c r="C1288" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1288" s="2"/>
       <c r="E1288" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="G1288" s="2"/>
@@ -25170,10 +25215,10 @@
         <v>12</v>
       </c>
       <c r="B1294" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1294" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D1294" s="2"/>
       <c r="E1294" s="2" t="s">
@@ -25189,11 +25234,11 @@
       </c>
       <c r="B1295" s="2"/>
       <c r="C1295" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D1295" s="2"/>
       <c r="E1295" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F1295" s="2"/>
       <c r="G1295" s="2"/>
@@ -25204,14 +25249,14 @@
         <v>12</v>
       </c>
       <c r="B1296" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C1296" s="2"/>
       <c r="D1296" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1296" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1296" s="2"/>
       <c r="G1296" s="2"/>
@@ -25222,16 +25267,16 @@
         <v>12</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C1297" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D1297" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1297" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1297" s="2"/>
       <c r="G1297" s="2"/>
@@ -25242,16 +25287,16 @@
         <v>12</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C1298" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D1298" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1298" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1298" s="2"/>
       <c r="G1298" s="2"/>
@@ -25262,16 +25307,16 @@
         <v>12</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C1299" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D1299" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1299" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1299" s="2"/>
       <c r="G1299" s="2"/>
@@ -25282,14 +25327,14 @@
         <v>12</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C1300" s="2"/>
       <c r="D1300" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1300" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1300" s="2"/>
       <c r="G1300" s="2"/>
@@ -25300,14 +25345,14 @@
         <v>12</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C1301" s="2"/>
       <c r="D1301" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1301" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1301" s="2"/>
       <c r="G1301" s="2"/>
@@ -25318,16 +25363,14 @@
         <v>12</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1302" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C1302" s="2"/>
       <c r="D1302" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1302" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1302" s="2"/>
       <c r="G1302" s="2"/>
@@ -25338,14 +25381,16 @@
         <v>12</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1303" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C1303" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="D1303" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1303" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1303" s="2"/>
       <c r="G1303" s="2"/>
@@ -25356,14 +25401,14 @@
         <v>12</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C1304" s="2"/>
       <c r="D1304" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1304" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1304" s="2"/>
       <c r="G1304" s="2"/>
@@ -25374,14 +25419,16 @@
         <v>12</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1305" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C1305" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="D1305" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1305" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1305" s="2"/>
       <c r="G1305" s="2"/>
@@ -25392,16 +25439,14 @@
         <v>12</v>
       </c>
       <c r="B1306" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1306" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C1306" s="2"/>
       <c r="D1306" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1306" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1306" s="2"/>
       <c r="G1306" s="2"/>
@@ -25412,16 +25457,14 @@
         <v>12</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1307" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C1307" s="2"/>
       <c r="D1307" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1307" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1307" s="2"/>
       <c r="G1307" s="2"/>
@@ -25432,14 +25475,16 @@
         <v>12</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1308" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C1308" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D1308" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1308" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1308" s="2"/>
       <c r="G1308" s="2"/>
@@ -25450,16 +25495,16 @@
         <v>12</v>
       </c>
       <c r="B1309" s="2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C1309" s="2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D1309" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1309" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1309" s="2"/>
       <c r="G1309" s="2"/>
@@ -25470,16 +25515,14 @@
         <v>12</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1310" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C1310" s="2"/>
       <c r="D1310" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1310" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1310" s="2"/>
       <c r="G1310" s="2"/>
@@ -25490,14 +25533,16 @@
         <v>12</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1311" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="D1311" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1311" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1311" s="2"/>
       <c r="G1311" s="2"/>
@@ -25508,14 +25553,16 @@
         <v>12</v>
       </c>
       <c r="B1312" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1312" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C1312" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D1312" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1312" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1312" s="2"/>
       <c r="G1312" s="2"/>
@@ -25526,16 +25573,14 @@
         <v>12</v>
       </c>
       <c r="B1313" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1313" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C1313" s="2"/>
       <c r="D1313" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1313" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1313" s="2"/>
       <c r="G1313" s="2"/>
@@ -25546,14 +25591,14 @@
         <v>12</v>
       </c>
       <c r="B1314" s="2" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C1314" s="2"/>
       <c r="D1314" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1314" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1314" s="2"/>
       <c r="G1314" s="2"/>
@@ -25564,14 +25609,16 @@
         <v>12</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1315" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C1315" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D1315" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1315" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1315" s="2"/>
       <c r="G1315" s="2"/>
@@ -25582,32 +25629,32 @@
         <v>12</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="C1316" s="2"/>
-      <c r="D1316" s="2"/>
+      <c r="D1316" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E1316" s="2" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="F1316" s="2"/>
       <c r="G1316" s="2"/>
-      <c r="H1316" s="4"/>
+      <c r="H1316" s="6"/>
     </row>
     <row r="1317" spans="1:8">
       <c r="A1317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1317" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1317" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C1317" s="2"/>
       <c r="D1317" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1317" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1317" s="2"/>
       <c r="G1317" s="2"/>
@@ -25618,36 +25665,32 @@
         <v>12</v>
       </c>
       <c r="B1318" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1318" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1318" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C1318" s="2"/>
+      <c r="D1318" s="2"/>
       <c r="E1318" s="2" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="F1318" s="2"/>
       <c r="G1318" s="2"/>
-      <c r="H1318" s="6"/>
+      <c r="H1318" s="4"/>
     </row>
     <row r="1319" spans="1:8">
       <c r="A1319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C1319" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="D1319" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1319" s="2"/>
       <c r="G1319" s="2"/>
@@ -25658,14 +25701,16 @@
         <v>12</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1320" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C1320" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D1320" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1320" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1320" s="2"/>
       <c r="G1320" s="2"/>
@@ -25675,27 +25720,35 @@
       <c r="A1321" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1321" s="2"/>
-      <c r="C1321" s="2"/>
-      <c r="D1321" s="2"/>
-      <c r="E1321" s="2"/>
+      <c r="B1321" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1321" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1321" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1321" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F1321" s="2"/>
       <c r="G1321" s="2"/>
-      <c r="H1321" s="4"/>
+      <c r="H1321" s="6"/>
     </row>
     <row r="1322" spans="1:8">
       <c r="A1322" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C1322" s="2"/>
       <c r="D1322" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1322" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F1322" s="2"/>
       <c r="G1322" s="2"/>
@@ -25706,16 +25759,64 @@
         <v>12</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="C1323" s="2"/>
-      <c r="D1323" s="2"/>
+      <c r="D1323" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E1323" s="2" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="F1323" s="2"/>
       <c r="G1323" s="2"/>
-      <c r="H1323" s="4"/>
+      <c r="H1323" s="6"/>
+    </row>
+    <row r="1324" spans="1:8">
+      <c r="A1324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1324" s="2"/>
+      <c r="C1324" s="2"/>
+      <c r="D1324" s="2"/>
+      <c r="E1324" s="2"/>
+      <c r="F1324" s="2"/>
+      <c r="G1324" s="2"/>
+      <c r="H1324" s="4"/>
+    </row>
+    <row r="1325" spans="1:8">
+      <c r="A1325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1325" s="2"/>
+      <c r="D1325" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1325" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1325" s="2"/>
+      <c r="G1325" s="2"/>
+      <c r="H1325" s="6"/>
+    </row>
+    <row r="1326" spans="1:8">
+      <c r="A1326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1326" s="2"/>
+      <c r="D1326" s="2"/>
+      <c r="E1326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1326" s="2"/>
+      <c r="G1326" s="2"/>
+      <c r="H1326" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
